--- a/relatorios/2025-10-14/Bilhetes_2025-10-14.xlsx
+++ b/relatorios/2025-10-14/Bilhetes_2025-10-14.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Bilhetes do Dia" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Notas Finais" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +432,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
@@ -487,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-14 12:47:55</t>
+          <t>2025-10-14 13:56:56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IG2025-14</t>
+          <t>IG2025-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -512,7 +511,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -521,7 +520,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-14 12:23:55</t>
+          <t>2025-10-14 13:56:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IG2025-13</t>
+          <t>IG2025-21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +554,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-14 12:06:38</t>
+          <t>2025-10-14 13:56:10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,12 +564,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Japonesa</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IG2025-12</t>
+          <t>IG2025-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-14 11:43:30</t>
+          <t>2025-10-14 13:56:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -599,12 +598,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Angolana</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>IG2025-11</t>
+          <t>IG2025-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -623,7 +622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-14 11:38:27</t>
+          <t>2025-10-14 13:56:10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -633,12 +632,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IG2025-10</t>
+          <t>IG2025-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,7 +656,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-14 11:24:47</t>
+          <t>2025-10-14 13:55:58</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -667,17 +666,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IG2025-9</t>
+          <t>IG2025-17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Cartão</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,17 +684,21 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>teste teste teste teste teste</t>
+          <t>testes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-14 11:12:52</t>
+          <t>2025-10-14 13:55:58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,17 +708,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IG2025-8</t>
+          <t>IG2025-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Cartão</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -723,86 +726,324 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>teste teste teste teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+          <t>testes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-14 13:55:58</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>IG2025-15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cartão</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>testes</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total de Bilhetes Vendidos:</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
+          <t>2025-10-14 12:47:55</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IG2025-14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Não Entraram:</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12"/>
+          <t>2025-10-14 12:23:55</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IG2025-13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-14 12:06:38</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Japonesa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IG2025-12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr"/>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Anotações Finais:</t>
+          <t>2025-10-14 11:43:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teste teste teste
-teste tes tes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Anotações Finais</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>teste teste teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>teste tes tes</t>
-        </is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Angolana</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IG2025-11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:38:27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>IG2025-10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:24:47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IG2025-9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>teste teste teste teste teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:12:52</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>IG2025-8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>teste teste teste teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total de Bilhetes Vendidos:</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Não Entraram:</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
